--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Peru_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Peru_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G372"/>
+  <dimension ref="A1:G374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9636,16 +9636,16 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>287364000000</v>
+        <v>192778000000</v>
       </c>
       <c r="D368" t="n">
-        <v>287364000000</v>
+        <v>192778000000</v>
       </c>
       <c r="E368" t="n">
-        <v>287364000000</v>
+        <v>192778000000</v>
       </c>
       <c r="F368" t="n">
-        <v>287364000000</v>
+        <v>192778000000</v>
       </c>
       <c r="G368" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>44835.41666666666</v>
+        <v>44774.41666666666</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -9661,16 +9661,16 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>292818000000</v>
+        <v>295831000000</v>
       </c>
       <c r="D369" t="n">
-        <v>292818000000</v>
+        <v>295831000000</v>
       </c>
       <c r="E369" t="n">
-        <v>292818000000</v>
+        <v>295831000000</v>
       </c>
       <c r="F369" t="n">
-        <v>292818000000</v>
+        <v>295831000000</v>
       </c>
       <c r="G369" t="n">
         <v>0</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44866.45833333334</v>
+        <v>44805.41666666666</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -9686,16 +9686,16 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>288445000000</v>
+        <v>295831000000</v>
       </c>
       <c r="D370" t="n">
-        <v>288445000000</v>
+        <v>295831000000</v>
       </c>
       <c r="E370" t="n">
-        <v>288445000000</v>
+        <v>295831000000</v>
       </c>
       <c r="F370" t="n">
-        <v>288445000000</v>
+        <v>295831000000</v>
       </c>
       <c r="G370" t="n">
         <v>0</v>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>44896.45833333334</v>
+        <v>44835.41666666666</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -9711,16 +9711,16 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>196800000000</v>
+        <v>292818000000</v>
       </c>
       <c r="D371" t="n">
-        <v>196800000000</v>
+        <v>292818000000</v>
       </c>
       <c r="E371" t="n">
-        <v>196800000000</v>
+        <v>292818000000</v>
       </c>
       <c r="F371" t="n">
-        <v>196800000000</v>
+        <v>292818000000</v>
       </c>
       <c r="G371" t="n">
         <v>0</v>
@@ -9728,26 +9728,76 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
+        <v>44866.45833333334</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>ECONOMICS:PEM2</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>288445000000</v>
+      </c>
+      <c r="D372" t="n">
+        <v>288445000000</v>
+      </c>
+      <c r="E372" t="n">
+        <v>288445000000</v>
+      </c>
+      <c r="F372" t="n">
+        <v>288445000000</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>44896.45833333334</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>ECONOMICS:PEM2</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>196800000000</v>
+      </c>
+      <c r="D373" t="n">
+        <v>196800000000</v>
+      </c>
+      <c r="E373" t="n">
+        <v>196800000000</v>
+      </c>
+      <c r="F373" t="n">
+        <v>196800000000</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
         <v>44927.45833333334</v>
       </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>ECONOMICS:PEM2</t>
-        </is>
-      </c>
-      <c r="C372" t="n">
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>ECONOMICS:PEM2</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
         <v>296293000000</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D374" t="n">
         <v>296293000000</v>
       </c>
-      <c r="E372" t="n">
+      <c r="E374" t="n">
         <v>296293000000</v>
       </c>
-      <c r="F372" t="n">
+      <c r="F374" t="n">
         <v>296293000000</v>
       </c>
-      <c r="G372" t="n">
+      <c r="G374" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Peru_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Peru_M2.xlsx
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Peru_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Peru_M2.xlsx
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Peru_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Peru_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G374"/>
+  <dimension ref="A1:G376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9801,6 +9801,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>ECONOMICS:PEM2</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>290956000000</v>
+      </c>
+      <c r="D375" t="n">
+        <v>290956000000</v>
+      </c>
+      <c r="E375" t="n">
+        <v>290956000000</v>
+      </c>
+      <c r="F375" t="n">
+        <v>290956000000</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>ECONOMICS:PEM2</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>290419000000</v>
+      </c>
+      <c r="D376" t="n">
+        <v>290419000000</v>
+      </c>
+      <c r="E376" t="n">
+        <v>290419000000</v>
+      </c>
+      <c r="F376" t="n">
+        <v>290419000000</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
